--- a/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс  обработаные позиции 07.11.2024.xlsx
+++ b/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс  обработаные позиции 07.11.2024.xlsx
@@ -3663,7 +3663,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3679,12 +3679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4102,31 +4096,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4157,6 +4148,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4661,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A130" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A163" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4684,18 +4678,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="37" t="s">
@@ -4811,18 +4805,18 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
@@ -5210,20 +5204,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -5418,21 +5412,21 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
     </row>
     <row r="29" spans="1:12" ht="16.5">
-      <c r="A29" s="101">
+      <c r="A29" s="100">
         <v>1</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -5447,7 +5441,7 @@
       <c r="E29" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="F29" s="101">
+      <c r="F29" s="100">
         <v>5</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -5464,7 +5458,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="100" t="s">
         <v>673</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -5479,7 +5473,7 @@
       <c r="E30" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="F30" s="101">
+      <c r="F30" s="100">
         <v>6</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -5503,7 +5497,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="101">
+      <c r="F31" s="100">
         <v>7</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -5527,7 +5521,7 @@
       <c r="C32" s="29"/>
       <c r="D32" s="3"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="101">
+      <c r="F32" s="100">
         <v>8</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -5544,20 +5538,20 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="109"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -5566,7 +5560,7 @@
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" ht="16.5">
-      <c r="A34" s="101">
+      <c r="A34" s="100">
         <v>1</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -5581,7 +5575,7 @@
       <c r="E34" s="18" t="s">
         <v>681</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="100">
         <v>9</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -5598,7 +5592,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5">
-      <c r="A35" s="101">
+      <c r="A35" s="100">
         <v>2</v>
       </c>
       <c r="B35" s="91" t="s">
@@ -5613,7 +5607,7 @@
       <c r="E35" s="93" t="s">
         <v>687</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="100">
         <v>10</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -5645,7 +5639,7 @@
       <c r="E36" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="F36" s="101">
+      <c r="F36" s="100">
         <v>11</v>
       </c>
       <c r="G36" s="20" t="s">
@@ -5662,7 +5656,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5">
-      <c r="A37" s="101">
+      <c r="A37" s="100">
         <v>4</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -5677,7 +5671,7 @@
       <c r="E37" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="101">
+      <c r="F37" s="100">
         <v>12</v>
       </c>
       <c r="G37" s="20" t="s">
@@ -5694,7 +5688,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5">
-      <c r="A38" s="101">
+      <c r="A38" s="100">
         <v>5</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -5709,7 +5703,7 @@
       <c r="E38" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="F38" s="101">
+      <c r="F38" s="100">
         <v>13</v>
       </c>
       <c r="G38" s="17" t="s">
@@ -5726,7 +5720,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5">
-      <c r="A39" s="101">
+      <c r="A39" s="100">
         <v>6</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -5737,7 +5731,7 @@
       <c r="E39" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="F39" s="101">
+      <c r="F39" s="100">
         <v>14</v>
       </c>
       <c r="G39" s="17" t="s">
@@ -5754,7 +5748,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5">
-      <c r="A40" s="101">
+      <c r="A40" s="100">
         <v>7</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -5786,7 +5780,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5">
-      <c r="A41" s="106">
+      <c r="A41" s="105">
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -5810,20 +5804,20 @@
       <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="107" t="s">
         <v>471</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="110"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="109"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -5831,7 +5825,7 @@
       <c r="P42" s="7"/>
     </row>
     <row r="43" spans="1:16" ht="16.5">
-      <c r="A43" s="101">
+      <c r="A43" s="100">
         <v>1</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -5846,7 +5840,7 @@
       <c r="E43" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="F43" s="101">
+      <c r="F43" s="100">
         <v>5</v>
       </c>
       <c r="G43" s="12" t="s">
@@ -5863,7 +5857,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5">
-      <c r="A44" s="101">
+      <c r="A44" s="100">
         <v>2</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -5878,7 +5872,7 @@
       <c r="E44" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="101">
+      <c r="F44" s="100">
         <v>6</v>
       </c>
       <c r="G44" s="12" t="s">
@@ -5895,7 +5889,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5">
-      <c r="A45" s="101">
+      <c r="A45" s="100">
         <v>3</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -5910,7 +5904,7 @@
       <c r="E45" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="F45" s="101">
+      <c r="F45" s="100">
         <v>7</v>
       </c>
       <c r="G45" s="12" t="s">
@@ -5927,7 +5921,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5">
-      <c r="A46" s="101">
+      <c r="A46" s="100">
         <v>4</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -5942,7 +5936,7 @@
       <c r="E46" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="F46" s="101">
+      <c r="F46" s="100">
         <v>8</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -5959,23 +5953,23 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="109"/>
     </row>
     <row r="48" spans="1:16" ht="16.5">
-      <c r="A48" s="101">
+      <c r="A48" s="100">
         <v>1</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -6007,7 +6001,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A49" s="101">
+      <c r="A49" s="100">
         <v>2</v>
       </c>
       <c r="B49" s="56" t="s">
@@ -6022,7 +6016,7 @@
       <c r="E49" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="F49" s="101">
+      <c r="F49" s="100">
         <v>14</v>
       </c>
       <c r="G49" s="20" t="s">
@@ -6054,7 +6048,7 @@
       <c r="E50" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F50" s="101">
+      <c r="F50" s="100">
         <v>15</v>
       </c>
       <c r="G50" s="59" t="s">
@@ -6086,7 +6080,7 @@
       <c r="E51" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="101">
+      <c r="F51" s="100">
         <v>16</v>
       </c>
       <c r="G51" s="59" t="s">
@@ -6103,7 +6097,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5">
-      <c r="A52" s="101">
+      <c r="A52" s="100">
         <v>5</v>
       </c>
       <c r="B52" s="56" t="s">
@@ -6118,7 +6112,7 @@
       <c r="E52" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="F52" s="101">
+      <c r="F52" s="100">
         <v>17</v>
       </c>
       <c r="G52" s="59" t="s">
@@ -6135,7 +6129,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5">
-      <c r="A53" s="101">
+      <c r="A53" s="100">
         <v>6</v>
       </c>
       <c r="B53" s="56" t="s">
@@ -6150,7 +6144,7 @@
       <c r="E53" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="101">
+      <c r="F53" s="100">
         <v>18</v>
       </c>
       <c r="G53" s="59" t="s">
@@ -6167,7 +6161,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5">
-      <c r="A54" s="101">
+      <c r="A54" s="100">
         <v>7</v>
       </c>
       <c r="B54" s="56" t="s">
@@ -6182,7 +6176,7 @@
       <c r="E54" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="F54" s="101">
+      <c r="F54" s="100">
         <v>19</v>
       </c>
       <c r="G54" s="20" t="s">
@@ -6199,7 +6193,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5">
-      <c r="A55" s="101">
+      <c r="A55" s="100">
         <v>8</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -6214,7 +6208,7 @@
       <c r="E55" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="101">
+      <c r="F55" s="100">
         <v>20</v>
       </c>
       <c r="G55" s="60" t="s">
@@ -6231,7 +6225,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5">
-      <c r="A56" s="101">
+      <c r="A56" s="100">
         <v>9</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -6263,7 +6257,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5">
-      <c r="A57" s="101">
+      <c r="A57" s="100">
         <v>10</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -6293,7 +6287,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5">
-      <c r="A58" s="101">
+      <c r="A58" s="100">
         <v>11</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -6308,7 +6302,7 @@
       <c r="E58" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F58" s="101">
+      <c r="F58" s="100">
         <v>23</v>
       </c>
       <c r="G58" s="56" t="s">
@@ -6355,21 +6349,21 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="110"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="109"/>
     </row>
     <row r="61" spans="1:10" ht="16.5">
-      <c r="A61" s="101">
+      <c r="A61" s="100">
         <v>1</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -6382,7 +6376,7 @@
       <c r="E61" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="101">
+      <c r="F61" s="100">
         <v>3</v>
       </c>
       <c r="G61" s="16" t="s">
@@ -6431,23 +6425,23 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109"/>
-      <c r="H63" s="109"/>
-      <c r="I63" s="109"/>
-      <c r="J63" s="110"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="109"/>
     </row>
     <row r="64" spans="1:10" ht="16.5">
-      <c r="A64" s="101">
+      <c r="A64" s="100">
         <v>1</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -6477,7 +6471,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5">
-      <c r="A65" s="101">
+      <c r="A65" s="100">
         <v>2</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -6507,7 +6501,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5">
-      <c r="A66" s="101">
+      <c r="A66" s="100">
         <v>3</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -6520,7 +6514,7 @@
       <c r="E66" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F66" s="101">
+      <c r="F66" s="100">
         <v>8</v>
       </c>
       <c r="G66" s="20" t="s">
@@ -6537,7 +6531,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5">
-      <c r="A67" s="101">
+      <c r="A67" s="100">
         <v>4</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -6597,23 +6591,23 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="109" t="s">
+      <c r="B69" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="110"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="109"/>
     </row>
     <row r="70" spans="1:10" ht="16.5">
-      <c r="A70" s="101">
+      <c r="A70" s="100">
         <v>1</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -6707,7 +6701,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5">
-      <c r="A73" s="101">
+      <c r="A73" s="100">
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -6722,7 +6716,7 @@
       <c r="E73" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F73" s="101">
+      <c r="F73" s="100">
         <v>19</v>
       </c>
       <c r="G73" s="20" t="s">
@@ -6739,7 +6733,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5">
-      <c r="A74" s="101">
+      <c r="A74" s="100">
         <v>5</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -6850,7 +6844,7 @@
       <c r="E77" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F77" s="101">
+      <c r="F77" s="100">
         <v>23</v>
       </c>
       <c r="G77" s="20" t="s">
@@ -6882,7 +6876,7 @@
       <c r="E78" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F78" s="101">
+      <c r="F78" s="100">
         <v>24</v>
       </c>
       <c r="G78" s="21" t="s">
@@ -6946,7 +6940,7 @@
       <c r="E80" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="F80" s="101">
+      <c r="F80" s="100">
         <v>26</v>
       </c>
       <c r="G80" s="20" t="s">
@@ -6963,7 +6957,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="16.5">
-      <c r="A81" s="101">
+      <c r="A81" s="100">
         <v>12</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -6978,7 +6972,7 @@
       <c r="E81" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="F81" s="101">
+      <c r="F81" s="100">
         <v>27</v>
       </c>
       <c r="G81" s="20" t="s">
@@ -6995,7 +6989,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="16.5">
-      <c r="A82" s="101">
+      <c r="A82" s="100">
         <v>13</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -7027,7 +7021,7 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="16.5">
-      <c r="A83" s="101">
+      <c r="A83" s="100">
         <v>14</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -7059,7 +7053,7 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5">
-      <c r="A84" s="101">
+      <c r="A84" s="100">
         <v>15</v>
       </c>
       <c r="B84" s="16" t="s">
@@ -7091,20 +7085,20 @@
       </c>
     </row>
     <row r="85" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="108" t="s">
+      <c r="A85" s="107" t="s">
         <v>473</v>
       </c>
-      <c r="B85" s="109" t="s">
+      <c r="B85" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="109"/>
-      <c r="D85" s="109"/>
-      <c r="E85" s="109"/>
-      <c r="F85" s="109"/>
-      <c r="G85" s="109"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="110"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="108"/>
+      <c r="G85" s="108"/>
+      <c r="H85" s="108"/>
+      <c r="I85" s="108"/>
+      <c r="J85" s="109"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -7219,7 +7213,7 @@
       <c r="E89" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="F89" s="101">
+      <c r="F89" s="100">
         <v>18</v>
       </c>
       <c r="G89" s="20" t="s">
@@ -7534,20 +7528,20 @@
       </c>
     </row>
     <row r="100" spans="1:17" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A100" s="108" t="s">
+      <c r="A100" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="109" t="s">
+      <c r="B100" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="109"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="109"/>
-      <c r="F100" s="109"/>
-      <c r="G100" s="109"/>
-      <c r="H100" s="109"/>
-      <c r="I100" s="109"/>
-      <c r="J100" s="110"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="109"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -7557,7 +7551,7 @@
       <c r="Q100" s="7"/>
     </row>
     <row r="101" spans="1:17" ht="16.5">
-      <c r="A101" s="105">
+      <c r="A101" s="104">
         <v>1</v>
       </c>
       <c r="B101" s="21" t="s">
@@ -7572,7 +7566,7 @@
       <c r="E101" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="F101" s="101">
+      <c r="F101" s="100">
         <v>15</v>
       </c>
       <c r="G101" s="12" t="s">
@@ -7589,7 +7583,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" ht="16.5">
-      <c r="A102" s="105">
+      <c r="A102" s="104">
         <v>2</v>
       </c>
       <c r="B102" s="21" t="s">
@@ -7621,7 +7615,7 @@
       </c>
     </row>
     <row r="103" spans="1:17" ht="16.5">
-      <c r="A103" s="105">
+      <c r="A103" s="104">
         <v>3</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7636,7 +7630,7 @@
       <c r="E103" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="F103" s="101">
+      <c r="F103" s="100">
         <v>17</v>
       </c>
       <c r="G103" s="17" t="s">
@@ -7653,7 +7647,7 @@
       </c>
     </row>
     <row r="104" spans="1:17" ht="16.5">
-      <c r="A104" s="105">
+      <c r="A104" s="104">
         <v>4</v>
       </c>
       <c r="B104" s="21" t="s">
@@ -7668,7 +7662,7 @@
       <c r="E104" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="F104" s="101">
+      <c r="F104" s="100">
         <v>18</v>
       </c>
       <c r="G104" s="12" t="s">
@@ -7685,7 +7679,7 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="16.5">
-      <c r="A105" s="105">
+      <c r="A105" s="104">
         <v>5</v>
       </c>
       <c r="B105" s="21" t="s">
@@ -7700,7 +7694,7 @@
       <c r="E105" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="F105" s="101">
+      <c r="F105" s="100">
         <v>19</v>
       </c>
       <c r="G105" s="7" t="s">
@@ -7717,7 +7711,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" ht="16.5">
-      <c r="A106" s="105">
+      <c r="A106" s="104">
         <v>6</v>
       </c>
       <c r="B106" s="20" t="s">
@@ -7732,7 +7726,7 @@
       <c r="E106" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="F106" s="101">
+      <c r="F106" s="100">
         <v>20</v>
       </c>
       <c r="G106" s="16" t="s">
@@ -7749,7 +7743,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" ht="16.5">
-      <c r="A107" s="105">
+      <c r="A107" s="104">
         <v>7</v>
       </c>
       <c r="B107" s="20" t="s">
@@ -7781,7 +7775,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="16.5">
-      <c r="A108" s="105">
+      <c r="A108" s="104">
         <v>8</v>
       </c>
       <c r="B108" s="17" t="s">
@@ -7796,7 +7790,7 @@
       <c r="E108" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="F108" s="101">
+      <c r="F108" s="100">
         <v>22</v>
       </c>
       <c r="G108" s="17" t="s">
@@ -7813,7 +7807,7 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="16.5">
-      <c r="A109" s="105">
+      <c r="A109" s="104">
         <v>9</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -7828,7 +7822,7 @@
       <c r="E109" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="F109" s="101">
+      <c r="F109" s="100">
         <v>23</v>
       </c>
       <c r="G109" s="17" t="s">
@@ -7909,7 +7903,7 @@
       </c>
     </row>
     <row r="112" spans="1:17" ht="16.5">
-      <c r="A112" s="105">
+      <c r="A112" s="104">
         <v>12</v>
       </c>
       <c r="B112" s="12" t="s">
@@ -7973,18 +7967,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A114" s="108" t="s">
+      <c r="A114" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="109"/>
-      <c r="C114" s="109"/>
-      <c r="D114" s="109"/>
-      <c r="E114" s="109"/>
-      <c r="F114" s="109"/>
-      <c r="G114" s="109"/>
-      <c r="H114" s="109"/>
-      <c r="I114" s="109"/>
-      <c r="J114" s="110"/>
+      <c r="B114" s="108"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="108"/>
+      <c r="I114" s="108"/>
+      <c r="J114" s="109"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
@@ -8004,7 +7998,7 @@
       <c r="E115" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F115" s="101">
+      <c r="F115" s="100">
         <v>11</v>
       </c>
       <c r="G115" s="20" t="s">
@@ -8085,7 +8079,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="16.5">
-      <c r="A118" s="107">
+      <c r="A118" s="106">
         <v>4</v>
       </c>
       <c r="B118" s="16" t="s">
@@ -8100,7 +8094,7 @@
       <c r="E118" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="F118" s="101">
+      <c r="F118" s="100">
         <v>14</v>
       </c>
       <c r="G118" s="20" t="s">
@@ -8132,7 +8126,7 @@
       <c r="E119" s="51">
         <v>7000</v>
       </c>
-      <c r="F119" s="101">
+      <c r="F119" s="100">
         <v>15</v>
       </c>
       <c r="G119" s="20" t="s">
@@ -8164,7 +8158,7 @@
       <c r="E120" s="51">
         <v>5000</v>
       </c>
-      <c r="F120" s="101">
+      <c r="F120" s="100">
         <v>16</v>
       </c>
       <c r="G120" s="20" t="s">
@@ -8224,7 +8218,7 @@
       <c r="E122" s="51">
         <v>9</v>
       </c>
-      <c r="F122" s="101">
+      <c r="F122" s="100">
         <v>18</v>
       </c>
       <c r="G122" s="20" t="s">
@@ -8239,7 +8233,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="107">
+      <c r="A123" s="106">
         <v>9</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -8254,7 +8248,7 @@
       <c r="E123" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="F123" s="101">
+      <c r="F123" s="100">
         <v>19</v>
       </c>
       <c r="G123" s="20" t="s">
@@ -8291,20 +8285,20 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="109" t="s">
+      <c r="B125" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="109"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="109"/>
-      <c r="J125" s="110"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="108"/>
+      <c r="H125" s="108"/>
+      <c r="I125" s="108"/>
+      <c r="J125" s="109"/>
     </row>
     <row r="126" spans="1:12" ht="16.5">
       <c r="A126" s="11">
@@ -8367,7 +8361,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="16.5">
-      <c r="A128" s="101">
+      <c r="A128" s="100">
         <v>3</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -8382,7 +8376,7 @@
       <c r="E128" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="F128" s="101">
+      <c r="F128" s="100">
         <v>27</v>
       </c>
       <c r="G128" s="17" t="s">
@@ -8412,7 +8406,7 @@
       <c r="E129" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F129" s="101">
+      <c r="F129" s="100">
         <v>28</v>
       </c>
       <c r="G129" s="17" t="s">
@@ -8442,7 +8436,7 @@
       <c r="E130" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="101">
+      <c r="F130" s="100">
         <v>29</v>
       </c>
       <c r="G130" s="17" t="s">
@@ -8457,7 +8451,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5">
-      <c r="A131" s="101">
+      <c r="A131" s="100">
         <v>6</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -8472,7 +8466,7 @@
       <c r="E131" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F131" s="101">
+      <c r="F131" s="100">
         <v>30</v>
       </c>
       <c r="G131" s="17" t="s">
@@ -8487,7 +8481,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5">
-      <c r="A132" s="101">
+      <c r="A132" s="100">
         <v>7</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -8517,7 +8511,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5">
-      <c r="A133" s="101">
+      <c r="A133" s="100">
         <v>8</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -8547,7 +8541,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5">
-      <c r="A134" s="101">
+      <c r="A134" s="100">
         <v>9</v>
       </c>
       <c r="B134" s="20" t="s">
@@ -8577,7 +8571,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5">
-      <c r="A135" s="101">
+      <c r="A135" s="100">
         <v>10</v>
       </c>
       <c r="B135" s="20" t="s">
@@ -8592,7 +8586,7 @@
       <c r="E135" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="F135" s="101">
+      <c r="F135" s="100">
         <v>34</v>
       </c>
       <c r="G135" s="21" t="s">
@@ -8607,7 +8601,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5">
-      <c r="A136" s="101">
+      <c r="A136" s="100">
         <v>11</v>
       </c>
       <c r="B136" s="20" t="s">
@@ -8622,7 +8616,7 @@
       <c r="E136" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F136" s="101">
+      <c r="F136" s="100">
         <v>35</v>
       </c>
       <c r="G136" s="21" t="s">
@@ -8637,7 +8631,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5">
-      <c r="A137" s="101">
+      <c r="A137" s="100">
         <v>12</v>
       </c>
       <c r="B137" s="17" t="s">
@@ -8652,7 +8646,7 @@
       <c r="E137" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="F137" s="101">
+      <c r="F137" s="100">
         <v>36</v>
       </c>
       <c r="G137" s="21" t="s">
@@ -8820,7 +8814,7 @@
       <c r="E143" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F143" s="100">
         <v>42</v>
       </c>
       <c r="G143" s="20" t="s">
@@ -8848,7 +8842,7 @@
       <c r="E144" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="100">
         <v>43</v>
       </c>
       <c r="G144" s="20" t="s">
@@ -8878,7 +8872,7 @@
       <c r="E145" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F145" s="100">
         <v>44</v>
       </c>
       <c r="G145" s="20" t="s">
@@ -8906,7 +8900,7 @@
       <c r="E146" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F146" s="100">
         <v>45</v>
       </c>
       <c r="G146" s="16" t="s">
@@ -8983,7 +8977,7 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5">
-      <c r="A149" s="101">
+      <c r="A149" s="100">
         <v>24</v>
       </c>
       <c r="B149" s="17" t="s">
@@ -9013,18 +9007,18 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A150" s="108" t="s">
+      <c r="A150" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="B150" s="109"/>
-      <c r="C150" s="109"/>
-      <c r="D150" s="109"/>
-      <c r="E150" s="109"/>
-      <c r="F150" s="109"/>
-      <c r="G150" s="109"/>
-      <c r="H150" s="109"/>
-      <c r="I150" s="109"/>
-      <c r="J150" s="110"/>
+      <c r="B150" s="108"/>
+      <c r="C150" s="108"/>
+      <c r="D150" s="108"/>
+      <c r="E150" s="108"/>
+      <c r="F150" s="108"/>
+      <c r="G150" s="108"/>
+      <c r="H150" s="108"/>
+      <c r="I150" s="108"/>
+      <c r="J150" s="109"/>
     </row>
     <row r="151" spans="1:10" ht="16.5">
       <c r="A151" s="11">
@@ -9042,10 +9036,10 @@
       <c r="E151" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="F151" s="99">
+      <c r="F151" s="98">
         <v>27</v>
       </c>
-      <c r="G151" s="103" t="s">
+      <c r="G151" s="101" t="s">
         <v>403</v>
       </c>
       <c r="H151" s="3" t="s">
@@ -9077,7 +9071,7 @@
       <c r="F152" s="16">
         <v>28</v>
       </c>
-      <c r="G152" s="103" t="s">
+      <c r="G152" s="101" t="s">
         <v>272</v>
       </c>
       <c r="H152" s="3" t="s">
@@ -9094,7 +9088,7 @@
       <c r="A153" s="11">
         <v>3</v>
       </c>
-      <c r="B153" s="102" t="s">
+      <c r="B153" s="101" t="s">
         <v>614</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -9106,10 +9100,10 @@
       <c r="E153" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="F153" s="99">
+      <c r="F153" s="98">
         <v>29</v>
       </c>
-      <c r="G153" s="103" t="s">
+      <c r="G153" s="101" t="s">
         <v>275</v>
       </c>
       <c r="H153" s="3" t="s">
@@ -9123,7 +9117,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5">
-      <c r="A154" s="101">
+      <c r="A154" s="100">
         <v>4</v>
       </c>
       <c r="B154" s="21" t="s">
@@ -9141,7 +9135,7 @@
       <c r="F154" s="16">
         <v>30</v>
       </c>
-      <c r="G154" s="103" t="s">
+      <c r="G154" s="101" t="s">
         <v>459</v>
       </c>
       <c r="H154" s="3" t="s">
@@ -9170,10 +9164,10 @@
       <c r="E155" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="F155" s="99">
+      <c r="F155" s="98">
         <v>31</v>
       </c>
-      <c r="G155" s="103" t="s">
+      <c r="G155" s="101" t="s">
         <v>460</v>
       </c>
       <c r="H155" s="3" t="s">
@@ -9187,10 +9181,10 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5">
-      <c r="A156" s="101">
+      <c r="A156" s="100">
         <v>6</v>
       </c>
-      <c r="B156" s="104" t="s">
+      <c r="B156" s="103" t="s">
         <v>616</v>
       </c>
       <c r="C156" s="29" t="s">
@@ -9202,10 +9196,10 @@
       <c r="E156" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F156" s="99">
+      <c r="F156" s="98">
         <v>32</v>
       </c>
-      <c r="G156" s="103" t="s">
+      <c r="G156" s="101" t="s">
         <v>274</v>
       </c>
       <c r="H156" s="3" t="s">
@@ -9222,7 +9216,7 @@
       <c r="A157" s="11">
         <v>7</v>
       </c>
-      <c r="B157" s="102" t="s">
+      <c r="B157" s="101" t="s">
         <v>618</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -9237,7 +9231,7 @@
       <c r="F157" s="16">
         <v>33</v>
       </c>
-      <c r="G157" s="103" t="s">
+      <c r="G157" s="101" t="s">
         <v>461</v>
       </c>
       <c r="H157" s="3" t="s">
@@ -9251,7 +9245,7 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5">
-      <c r="A158" s="101">
+      <c r="A158" s="100">
         <v>8</v>
       </c>
       <c r="B158" s="95" t="s">
@@ -9266,7 +9260,7 @@
       <c r="E158" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="F158" s="16">
+      <c r="F158" s="98">
         <v>34</v>
       </c>
       <c r="G158" s="17" t="s">
@@ -9283,10 +9277,10 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5">
-      <c r="A159" s="101">
-        <v>9</v>
-      </c>
-      <c r="B159" s="102" t="s">
+      <c r="A159" s="100">
+        <v>9</v>
+      </c>
+      <c r="B159" s="101" t="s">
         <v>620</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -9298,7 +9292,7 @@
       <c r="E159" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="F159" s="16">
+      <c r="F159" s="98">
         <v>35</v>
       </c>
       <c r="G159" s="17" t="s">
@@ -9347,7 +9341,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5">
-      <c r="A161" s="100">
+      <c r="A161" s="99">
         <v>11</v>
       </c>
       <c r="B161" s="95" t="s">
@@ -9379,7 +9373,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5">
-      <c r="A162" s="100">
+      <c r="A162" s="99">
         <v>12</v>
       </c>
       <c r="B162" s="95" t="s">
@@ -9394,7 +9388,7 @@
       <c r="E162" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="F162" s="16">
+      <c r="F162" s="98">
         <v>38</v>
       </c>
       <c r="G162" s="16" t="s">
@@ -9414,7 +9408,7 @@
       <c r="A163" s="11">
         <v>13</v>
       </c>
-      <c r="B163" s="102" t="s">
+      <c r="B163" s="101" t="s">
         <v>631</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -9446,7 +9440,7 @@
       <c r="A164" s="11">
         <v>14</v>
       </c>
-      <c r="B164" s="102" t="s">
+      <c r="B164" s="101" t="s">
         <v>632</v>
       </c>
       <c r="C164" s="29" t="s">
@@ -9475,7 +9469,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5">
-      <c r="A165" s="101">
+      <c r="A165" s="100">
         <v>15</v>
       </c>
       <c r="B165" s="21" t="s">
@@ -9507,7 +9501,7 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5">
-      <c r="A166" s="101">
+      <c r="A166" s="100">
         <v>16</v>
       </c>
       <c r="B166" s="21" t="s">
@@ -9539,7 +9533,7 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5">
-      <c r="A167" s="101">
+      <c r="A167" s="100">
         <v>17</v>
       </c>
       <c r="B167" s="21" t="s">
@@ -9571,7 +9565,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5">
-      <c r="A168" s="101">
+      <c r="A168" s="100">
         <v>18</v>
       </c>
       <c r="B168" s="21" t="s">
@@ -9603,7 +9597,7 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5">
-      <c r="A169" s="101">
+      <c r="A169" s="100">
         <v>19</v>
       </c>
       <c r="B169" s="21" t="s">
@@ -9635,7 +9629,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5">
-      <c r="A170" s="101">
+      <c r="A170" s="100">
         <v>20</v>
       </c>
       <c r="B170" s="21" t="s">
@@ -9667,7 +9661,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5">
-      <c r="A171" s="101">
+      <c r="A171" s="100">
         <v>21</v>
       </c>
       <c r="B171" s="16" t="s">
@@ -9699,7 +9693,7 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5">
-      <c r="A172" s="101">
+      <c r="A172" s="100">
         <v>22</v>
       </c>
       <c r="B172" s="21" t="s">
@@ -9731,7 +9725,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5">
-      <c r="A173" s="101">
+      <c r="A173" s="100">
         <v>23</v>
       </c>
       <c r="B173" s="21" t="s">
@@ -9763,7 +9757,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.5">
-      <c r="A174" s="11">
+      <c r="A174" s="99">
         <v>24</v>
       </c>
       <c r="B174" s="17" t="s">
@@ -9795,7 +9789,7 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5">
-      <c r="A175" s="11">
+      <c r="A175" s="100">
         <v>25</v>
       </c>
       <c r="B175" s="20" t="s">
@@ -9859,21 +9853,21 @@
       </c>
     </row>
     <row r="177" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A177" s="108" t="s">
+      <c r="A177" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="B177" s="109"/>
-      <c r="C177" s="109"/>
-      <c r="D177" s="109"/>
-      <c r="E177" s="109"/>
-      <c r="F177" s="109"/>
-      <c r="G177" s="109"/>
-      <c r="H177" s="109"/>
-      <c r="I177" s="109"/>
-      <c r="J177" s="110"/>
+      <c r="B177" s="108"/>
+      <c r="C177" s="108"/>
+      <c r="D177" s="108"/>
+      <c r="E177" s="108"/>
+      <c r="F177" s="108"/>
+      <c r="G177" s="108"/>
+      <c r="H177" s="108"/>
+      <c r="I177" s="108"/>
+      <c r="J177" s="109"/>
     </row>
     <row r="178" spans="1:11" ht="16.5">
-      <c r="A178" s="11">
+      <c r="A178" s="100">
         <v>1</v>
       </c>
       <c r="B178" s="20" t="s">
@@ -9891,7 +9885,7 @@
       <c r="F178" s="11">
         <v>10</v>
       </c>
-      <c r="G178" s="20" t="s">
+      <c r="G178" s="117" t="s">
         <v>199</v>
       </c>
       <c r="H178" s="29" t="s">
@@ -9905,7 +9899,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" ht="16.5">
-      <c r="A179" s="11">
+      <c r="A179" s="100">
         <v>2</v>
       </c>
       <c r="B179" s="20" t="s">
@@ -9923,7 +9917,7 @@
       <c r="F179" s="11">
         <v>11</v>
       </c>
-      <c r="G179" s="20" t="s">
+      <c r="G179" s="117" t="s">
         <v>108</v>
       </c>
       <c r="H179" s="29" t="s">
@@ -9937,7 +9931,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" ht="16.5">
-      <c r="A180" s="11">
+      <c r="A180" s="100">
         <v>3</v>
       </c>
       <c r="B180" s="20" t="s">
@@ -9955,7 +9949,7 @@
       <c r="F180" s="11">
         <v>12</v>
       </c>
-      <c r="G180" s="21" t="s">
+      <c r="G180" s="102" t="s">
         <v>246</v>
       </c>
       <c r="H180" s="32" t="s">
@@ -9969,7 +9963,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" ht="16.5">
-      <c r="A181" s="11">
+      <c r="A181" s="99">
         <v>4</v>
       </c>
       <c r="B181" s="20" t="s">
@@ -9987,7 +9981,7 @@
       <c r="F181" s="11">
         <v>13</v>
       </c>
-      <c r="G181" s="21" t="s">
+      <c r="G181" s="102" t="s">
         <v>336</v>
       </c>
       <c r="H181" s="32" t="s">
@@ -10001,7 +9995,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" ht="16.5">
-      <c r="A182" s="11">
+      <c r="A182" s="100">
         <v>5</v>
       </c>
       <c r="B182" s="20" t="s">
@@ -10033,7 +10027,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" ht="16.5">
-      <c r="A183" s="11">
+      <c r="A183" s="100">
         <v>6</v>
       </c>
       <c r="B183" s="20" t="s">
@@ -10065,7 +10059,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" ht="16.5">
-      <c r="A184" s="11">
+      <c r="A184" s="100">
         <v>7</v>
       </c>
       <c r="B184" s="20" t="s">
@@ -10097,7 +10091,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" ht="16.5">
-      <c r="A185" s="11">
+      <c r="A185" s="100">
         <v>8</v>
       </c>
       <c r="B185" s="20" t="s">
@@ -10129,7 +10123,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A186" s="11">
+      <c r="A186" s="100">
         <v>9</v>
       </c>
       <c r="B186" s="20" t="s">
@@ -10154,20 +10148,20 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A187" s="108" t="s">
+      <c r="A187" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="109" t="s">
+      <c r="B187" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="C187" s="109"/>
-      <c r="D187" s="109"/>
-      <c r="E187" s="109"/>
-      <c r="F187" s="109"/>
-      <c r="G187" s="109"/>
-      <c r="H187" s="109"/>
-      <c r="I187" s="109"/>
-      <c r="J187" s="110"/>
+      <c r="C187" s="108"/>
+      <c r="D187" s="108"/>
+      <c r="E187" s="108"/>
+      <c r="F187" s="108"/>
+      <c r="G187" s="108"/>
+      <c r="H187" s="108"/>
+      <c r="I187" s="108"/>
+      <c r="J187" s="109"/>
     </row>
     <row r="188" spans="1:11" ht="16.5">
       <c r="A188" s="13">
@@ -10386,18 +10380,18 @@
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" ht="16.5">
-      <c r="A196" s="115" t="s">
+      <c r="A196" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B196" s="116"/>
-      <c r="C196" s="116"/>
-      <c r="D196" s="116"/>
-      <c r="E196" s="116"/>
-      <c r="F196" s="116"/>
-      <c r="G196" s="116"/>
-      <c r="H196" s="116"/>
-      <c r="I196" s="116"/>
-      <c r="J196" s="117"/>
+      <c r="B196" s="115"/>
+      <c r="C196" s="115"/>
+      <c r="D196" s="115"/>
+      <c r="E196" s="115"/>
+      <c r="F196" s="115"/>
+      <c r="G196" s="115"/>
+      <c r="H196" s="115"/>
+      <c r="I196" s="115"/>
+      <c r="J196" s="116"/>
     </row>
     <row r="197" spans="1:10" ht="16.5">
       <c r="A197" s="8"/>

--- a/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс  обработаные позиции 07.11.2024.xlsx
+++ b/Фриланс/Projects/atena.com.ua/АТЕНА_КААПРІ прайс  обработаные позиции 07.11.2024.xlsx
@@ -3663,7 +3663,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3685,12 +3685,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3798,7 +3792,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4105,9 +4099,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4119,6 +4110,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4141,16 +4141,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4186,7 +4177,7 @@
         <xdr:cNvPr id="2" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4239,7 +4230,7 @@
         <xdr:cNvPr id="3" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4292,7 +4283,7 @@
         <xdr:cNvPr id="4" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,7 +4336,7 @@
         <xdr:cNvPr id="5" name="Shape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4655,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q815"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A163" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A166" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4678,18 +4669,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="37" t="s">
@@ -4805,18 +4796,18 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="111"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
@@ -5204,20 +5195,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -5412,18 +5403,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
     </row>
     <row r="29" spans="1:12" ht="16.5">
       <c r="A29" s="100">
@@ -5538,20 +5529,20 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="111"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -5780,7 +5771,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5">
-      <c r="A41" s="105">
+      <c r="A41" s="104">
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -5804,20 +5795,20 @@
       <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="109" t="s">
         <v>471</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="109"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="111"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -5953,20 +5944,20 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="111"/>
     </row>
     <row r="48" spans="1:16" ht="16.5">
       <c r="A48" s="100">
@@ -6349,18 +6340,18 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="108"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="109"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="111"/>
     </row>
     <row r="61" spans="1:10" ht="16.5">
       <c r="A61" s="100">
@@ -6425,20 +6416,20 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A63" s="107" t="s">
+      <c r="A63" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="109"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="111"/>
     </row>
     <row r="64" spans="1:10" ht="16.5">
       <c r="A64" s="100">
@@ -6591,20 +6582,20 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A69" s="107" t="s">
+      <c r="A69" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="108" t="s">
+      <c r="B69" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="108"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="109"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="111"/>
     </row>
     <row r="70" spans="1:10" ht="16.5">
       <c r="A70" s="100">
@@ -7085,20 +7076,20 @@
       </c>
     </row>
     <row r="85" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="107" t="s">
+      <c r="A85" s="109" t="s">
         <v>473</v>
       </c>
-      <c r="B85" s="108" t="s">
+      <c r="B85" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="108"/>
-      <c r="G85" s="108"/>
-      <c r="H85" s="108"/>
-      <c r="I85" s="108"/>
-      <c r="J85" s="109"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="110"/>
+      <c r="F85" s="110"/>
+      <c r="G85" s="110"/>
+      <c r="H85" s="110"/>
+      <c r="I85" s="110"/>
+      <c r="J85" s="111"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -7528,20 +7519,20 @@
       </c>
     </row>
     <row r="100" spans="1:17" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A100" s="107" t="s">
+      <c r="A100" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="108" t="s">
+      <c r="B100" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="108"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="108"/>
-      <c r="F100" s="108"/>
-      <c r="G100" s="108"/>
-      <c r="H100" s="108"/>
-      <c r="I100" s="108"/>
-      <c r="J100" s="109"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="110"/>
+      <c r="G100" s="110"/>
+      <c r="H100" s="110"/>
+      <c r="I100" s="110"/>
+      <c r="J100" s="111"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -7551,7 +7542,7 @@
       <c r="Q100" s="7"/>
     </row>
     <row r="101" spans="1:17" ht="16.5">
-      <c r="A101" s="104">
+      <c r="A101" s="103">
         <v>1</v>
       </c>
       <c r="B101" s="21" t="s">
@@ -7583,7 +7574,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" ht="16.5">
-      <c r="A102" s="104">
+      <c r="A102" s="103">
         <v>2</v>
       </c>
       <c r="B102" s="21" t="s">
@@ -7615,7 +7606,7 @@
       </c>
     </row>
     <row r="103" spans="1:17" ht="16.5">
-      <c r="A103" s="104">
+      <c r="A103" s="103">
         <v>3</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -7647,7 +7638,7 @@
       </c>
     </row>
     <row r="104" spans="1:17" ht="16.5">
-      <c r="A104" s="104">
+      <c r="A104" s="103">
         <v>4</v>
       </c>
       <c r="B104" s="21" t="s">
@@ -7679,7 +7670,7 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="16.5">
-      <c r="A105" s="104">
+      <c r="A105" s="103">
         <v>5</v>
       </c>
       <c r="B105" s="21" t="s">
@@ -7711,7 +7702,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" ht="16.5">
-      <c r="A106" s="104">
+      <c r="A106" s="103">
         <v>6</v>
       </c>
       <c r="B106" s="20" t="s">
@@ -7743,7 +7734,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" ht="16.5">
-      <c r="A107" s="104">
+      <c r="A107" s="103">
         <v>7</v>
       </c>
       <c r="B107" s="20" t="s">
@@ -7775,7 +7766,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="16.5">
-      <c r="A108" s="104">
+      <c r="A108" s="103">
         <v>8</v>
       </c>
       <c r="B108" s="17" t="s">
@@ -7807,7 +7798,7 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="16.5">
-      <c r="A109" s="104">
+      <c r="A109" s="103">
         <v>9</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -7903,7 +7894,7 @@
       </c>
     </row>
     <row r="112" spans="1:17" ht="16.5">
-      <c r="A112" s="104">
+      <c r="A112" s="103">
         <v>12</v>
       </c>
       <c r="B112" s="12" t="s">
@@ -7967,18 +7958,18 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A114" s="107" t="s">
+      <c r="A114" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="108"/>
-      <c r="C114" s="108"/>
-      <c r="D114" s="108"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="108"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="109"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="110"/>
+      <c r="D114" s="110"/>
+      <c r="E114" s="110"/>
+      <c r="F114" s="110"/>
+      <c r="G114" s="110"/>
+      <c r="H114" s="110"/>
+      <c r="I114" s="110"/>
+      <c r="J114" s="111"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
@@ -8079,7 +8070,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="16.5">
-      <c r="A118" s="106">
+      <c r="A118" s="105">
         <v>4</v>
       </c>
       <c r="B118" s="16" t="s">
@@ -8233,7 +8224,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="106">
+      <c r="A123" s="105">
         <v>9</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -8285,20 +8276,20 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A125" s="107" t="s">
+      <c r="A125" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="108" t="s">
+      <c r="B125" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
-      <c r="G125" s="108"/>
-      <c r="H125" s="108"/>
-      <c r="I125" s="108"/>
-      <c r="J125" s="109"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="110"/>
+      <c r="E125" s="110"/>
+      <c r="F125" s="110"/>
+      <c r="G125" s="110"/>
+      <c r="H125" s="110"/>
+      <c r="I125" s="110"/>
+      <c r="J125" s="111"/>
     </row>
     <row r="126" spans="1:12" ht="16.5">
       <c r="A126" s="11">
@@ -9007,18 +8998,18 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A150" s="107" t="s">
+      <c r="A150" s="109" t="s">
         <v>477</v>
       </c>
-      <c r="B150" s="108"/>
-      <c r="C150" s="108"/>
-      <c r="D150" s="108"/>
-      <c r="E150" s="108"/>
-      <c r="F150" s="108"/>
-      <c r="G150" s="108"/>
-      <c r="H150" s="108"/>
-      <c r="I150" s="108"/>
-      <c r="J150" s="109"/>
+      <c r="B150" s="110"/>
+      <c r="C150" s="110"/>
+      <c r="D150" s="110"/>
+      <c r="E150" s="110"/>
+      <c r="F150" s="110"/>
+      <c r="G150" s="110"/>
+      <c r="H150" s="110"/>
+      <c r="I150" s="110"/>
+      <c r="J150" s="111"/>
     </row>
     <row r="151" spans="1:10" ht="16.5">
       <c r="A151" s="11">
@@ -9184,7 +9175,7 @@
       <c r="A156" s="100">
         <v>6</v>
       </c>
-      <c r="B156" s="103" t="s">
+      <c r="B156" s="102" t="s">
         <v>616</v>
       </c>
       <c r="C156" s="29" t="s">
@@ -9853,18 +9844,18 @@
       </c>
     </row>
     <row r="177" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A177" s="107" t="s">
+      <c r="A177" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="B177" s="108"/>
-      <c r="C177" s="108"/>
-      <c r="D177" s="108"/>
-      <c r="E177" s="108"/>
-      <c r="F177" s="108"/>
-      <c r="G177" s="108"/>
-      <c r="H177" s="108"/>
-      <c r="I177" s="108"/>
-      <c r="J177" s="109"/>
+      <c r="B177" s="110"/>
+      <c r="C177" s="110"/>
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
+      <c r="H177" s="110"/>
+      <c r="I177" s="110"/>
+      <c r="J177" s="111"/>
     </row>
     <row r="178" spans="1:11" ht="16.5">
       <c r="A178" s="100">
@@ -9882,10 +9873,10 @@
       <c r="E178" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="100">
         <v>10</v>
       </c>
-      <c r="G178" s="117" t="s">
+      <c r="G178" s="116" t="s">
         <v>199</v>
       </c>
       <c r="H178" s="29" t="s">
@@ -9914,10 +9905,10 @@
       <c r="E179" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="F179" s="11">
+      <c r="F179" s="100">
         <v>11</v>
       </c>
-      <c r="G179" s="117" t="s">
+      <c r="G179" s="116" t="s">
         <v>108</v>
       </c>
       <c r="H179" s="29" t="s">
@@ -9949,7 +9940,7 @@
       <c r="F180" s="11">
         <v>12</v>
       </c>
-      <c r="G180" s="102" t="s">
+      <c r="G180" s="101" t="s">
         <v>246</v>
       </c>
       <c r="H180" s="32" t="s">
@@ -9978,10 +9969,10 @@
       <c r="E181" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F181" s="11">
+      <c r="F181" s="100">
         <v>13</v>
       </c>
-      <c r="G181" s="102" t="s">
+      <c r="G181" s="101" t="s">
         <v>336</v>
       </c>
       <c r="H181" s="32" t="s">
@@ -10010,7 +10001,7 @@
       <c r="E182" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F182" s="11">
+      <c r="F182" s="100">
         <v>14</v>
       </c>
       <c r="G182" s="20" t="s">
@@ -10042,7 +10033,7 @@
       <c r="E183" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="F183" s="11">
+      <c r="F183" s="100">
         <v>15</v>
       </c>
       <c r="G183" s="20" t="s">
@@ -10106,7 +10097,7 @@
       <c r="E185" s="26">
         <v>20</v>
       </c>
-      <c r="F185" s="11">
+      <c r="F185" s="100">
         <v>17</v>
       </c>
       <c r="G185" s="20" t="s">
@@ -10148,23 +10139,23 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A187" s="107" t="s">
+      <c r="A187" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="108" t="s">
+      <c r="B187" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="C187" s="108"/>
-      <c r="D187" s="108"/>
-      <c r="E187" s="108"/>
-      <c r="F187" s="108"/>
-      <c r="G187" s="108"/>
-      <c r="H187" s="108"/>
-      <c r="I187" s="108"/>
-      <c r="J187" s="109"/>
+      <c r="C187" s="110"/>
+      <c r="D187" s="110"/>
+      <c r="E187" s="110"/>
+      <c r="F187" s="110"/>
+      <c r="G187" s="110"/>
+      <c r="H187" s="110"/>
+      <c r="I187" s="110"/>
+      <c r="J187" s="111"/>
     </row>
     <row r="188" spans="1:11" ht="16.5">
-      <c r="A188" s="13">
+      <c r="A188" s="103">
         <v>1</v>
       </c>
       <c r="B188" s="21" t="s">
@@ -10194,7 +10185,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" ht="16.5">
-      <c r="A189" s="11">
+      <c r="A189" s="100">
         <v>2</v>
       </c>
       <c r="B189" s="16" t="s">
@@ -10224,7 +10215,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" ht="16.5">
-      <c r="A190" s="11">
+      <c r="A190" s="100">
         <v>3</v>
       </c>
       <c r="B190" s="20" t="s">
@@ -10287,7 +10278,7 @@
       <c r="E192" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F192" s="11">
+      <c r="F192" s="100">
         <v>13</v>
       </c>
       <c r="G192" s="20" t="s">
@@ -10380,18 +10371,18 @@
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" ht="16.5">
-      <c r="A196" s="114" t="s">
+      <c r="A196" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="B196" s="115"/>
-      <c r="C196" s="115"/>
-      <c r="D196" s="115"/>
-      <c r="E196" s="115"/>
-      <c r="F196" s="115"/>
-      <c r="G196" s="115"/>
-      <c r="H196" s="115"/>
-      <c r="I196" s="115"/>
-      <c r="J196" s="116"/>
+      <c r="B196" s="107"/>
+      <c r="C196" s="107"/>
+      <c r="D196" s="107"/>
+      <c r="E196" s="107"/>
+      <c r="F196" s="107"/>
+      <c r="G196" s="107"/>
+      <c r="H196" s="107"/>
+      <c r="I196" s="107"/>
+      <c r="J196" s="108"/>
     </row>
     <row r="197" spans="1:10" ht="16.5">
       <c r="A197" s="8"/>
@@ -15247,13 +15238,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A196:J196"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A125:J125"/>
-    <mergeCell ref="A187:J187"/>
-    <mergeCell ref="A177:J177"/>
-    <mergeCell ref="A150:J150"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A63:J63"/>
@@ -15265,6 +15249,13 @@
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A196:J196"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A187:J187"/>
+    <mergeCell ref="A177:J177"/>
+    <mergeCell ref="A150:J150"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C131" r:id="rId1"/>
